--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_18_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_18_32.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2510488.274380769</v>
+        <v>2626104.834205631</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12445555.52943491</v>
+        <v>12445534.67060185</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283189</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9051456.846379047</v>
+        <v>9051461.331187088</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>220.7742444965156</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>14.93107775573623</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>263.3828147651822</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>263.3828147651822</v>
+        <v>12.83417464571001</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3507887739393</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7938006179687</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2947308627104</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -735,28 +737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.48524054500676</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.94290942807532</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>128.010513948672</v>
+        <v>71.96198415669194</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -798,10 +800,10 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -832,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -865,10 +867,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>159.5367681711437</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,10 +879,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>263.3828147651822</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>67.10305732600121</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>225.4031397636151</v>
       </c>
       <c r="C5" t="n">
-        <v>244.8448976285501</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="F5" t="n">
-        <v>263.7138800015061</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>263.7138800015061</v>
@@ -950,13 +952,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -972,10 +974,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -984,13 +986,13 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120976</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>43.9218040015056</v>
@@ -1026,22 +1028,22 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>208.4690754486996</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>19.20071804054288</v>
       </c>
     </row>
     <row r="7">
@@ -1057,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1075,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888209</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>142.7788072341316</v>
       </c>
       <c r="U7" t="n">
-        <v>244.8661465010813</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,7 +1119,7 @@
         <v>263.7138800015061</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>256.2051417968402</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>366.2286228414761</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>411.5491597882495</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0453666896857</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1199,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.3343964518635</v>
+        <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83156789269626</v>
+        <v>92.83909691614507</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.24979976115237</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,13 +1262,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3646350838588</v>
+        <v>134.3791152901738</v>
       </c>
       <c r="T9" t="n">
-        <v>192.0665623188214</v>
+        <v>190.2932553761576</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8092030868072</v>
+        <v>225.8092543744329</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1288,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>104.8162497430995</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5869591640953</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>194.6738502503845</v>
       </c>
       <c r="T10" t="n">
-        <v>213.9588211022246</v>
+        <v>40.7279555141403</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>286.2271897703044</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1379,13 +1381,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444159</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695535</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1528,16 +1530,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>121.6381820844808</v>
       </c>
       <c r="E13" t="n">
-        <v>28.75188085812095</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1546,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1585,7 +1587,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1765,16 +1767,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>59.00369384633011</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>108.9065924712597</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1822,7 +1824,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1892,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2005,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428253</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2065,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>176.2740711281116</v>
       </c>
     </row>
     <row r="20">
@@ -2132,10 +2134,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881302</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2239,19 +2241,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>27.02919805176103</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2299,7 +2301,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>20.22544352992953</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2327,7 +2329,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2479,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,7 +2529,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2536,10 +2538,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>150.672680124696</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2552,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2603,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695523</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2621,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="27">
@@ -2710,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>129.5380597272477</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2731,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>41.55695577161151</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2801,13 +2803,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2849,13 +2851,13 @@
         <v>250.9057009881284</v>
       </c>
       <c r="V29" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2950,16 +2952,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2968,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>32.27552175740387</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3038,13 +3040,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,22 +3079,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695537</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>41.33703994142957</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3193,10 +3195,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3205,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3244,10 +3246,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>189.5765270689765</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3263,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3314,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695483</v>
       </c>
       <c r="T35" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3332,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3442,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>14.53306611597401</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3478,7 +3480,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3487,10 +3489,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>212.3267021497095</v>
       </c>
     </row>
     <row r="38">
@@ -3500,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3551,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3664,13 +3666,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3706,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>113.5413580759688</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3746,13 +3748,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722619</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3791,22 +3793,22 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560537</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3895,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>126.9420388308266</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>59.96838802183778</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3955,16 +3957,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533521031</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3992,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444115</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881294</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4071,7 +4073,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4132,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>136.1078891637032</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>684.7549646358004</v>
+        <v>423.8554133656</v>
       </c>
       <c r="C2" t="n">
-        <v>684.7549646358004</v>
+        <v>423.8554133656</v>
       </c>
       <c r="D2" t="n">
-        <v>684.7549646358004</v>
+        <v>423.8554133656</v>
       </c>
       <c r="E2" t="n">
-        <v>669.6730679128345</v>
+        <v>423.8554133656</v>
       </c>
       <c r="F2" t="n">
-        <v>403.6298206752767</v>
+        <v>416.9099126163966</v>
       </c>
       <c r="G2" t="n">
-        <v>137.5865734377189</v>
+        <v>403.9460998429521</v>
       </c>
       <c r="H2" t="n">
-        <v>137.5865734377189</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="I2" t="n">
-        <v>21.07062518121458</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.15993901467391</v>
+        <v>49.28269087917556</v>
       </c>
       <c r="K2" t="n">
-        <v>141.9970572935576</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L2" t="n">
-        <v>294.0714735959996</v>
+        <v>294.5174947515903</v>
       </c>
       <c r="M2" t="n">
-        <v>494.9530007796012</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N2" t="n">
-        <v>703.6988094670376</v>
+        <v>704.5463761991315</v>
       </c>
       <c r="O2" t="n">
-        <v>887.4762960289005</v>
+        <v>888.5149683358411</v>
       </c>
       <c r="P2" t="n">
-        <v>1009.825128108074</v>
+        <v>1011.026904601763</v>
       </c>
       <c r="Q2" t="n">
-        <v>1053.531259060729</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R2" t="n">
-        <v>1053.531259060729</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>899.1940867193463</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="T2" t="n">
-        <v>684.7549646358004</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="U2" t="n">
-        <v>684.7549646358004</v>
+        <v>646.8597007358178</v>
       </c>
       <c r="V2" t="n">
-        <v>684.7549646358004</v>
+        <v>646.8597007358178</v>
       </c>
       <c r="W2" t="n">
-        <v>684.7549646358004</v>
+        <v>646.8597007358178</v>
       </c>
       <c r="X2" t="n">
-        <v>684.7549646358004</v>
+        <v>646.8597007358178</v>
       </c>
       <c r="Y2" t="n">
-        <v>684.7549646358004</v>
+        <v>646.8597007358178</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>340.400573627071</v>
+        <v>520.1689916273217</v>
       </c>
       <c r="C3" t="n">
-        <v>165.947544345944</v>
+        <v>520.1689916273217</v>
       </c>
       <c r="D3" t="n">
-        <v>165.947544345944</v>
+        <v>371.2345819660704</v>
       </c>
       <c r="E3" t="n">
-        <v>165.947544345944</v>
+        <v>211.9971269606149</v>
       </c>
       <c r="F3" t="n">
-        <v>165.947544345944</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="G3" t="n">
-        <v>165.947544345944</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="H3" t="n">
-        <v>65.45740238129066</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="I3" t="n">
-        <v>21.07062518121458</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>21.07062518121458</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K3" t="n">
-        <v>95.65665001371114</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L3" t="n">
-        <v>242.2693060433186</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M3" t="n">
-        <v>432.7162285299057</v>
+        <v>438.3365024519934</v>
       </c>
       <c r="N3" t="n">
-        <v>647.5873146573283</v>
+        <v>648.3904695545984</v>
       </c>
       <c r="O3" t="n">
-        <v>908.3363012748588</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P3" t="n">
-        <v>1025.278016062228</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q3" t="n">
-        <v>1053.531259060729</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1053.531259060729</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>924.2277096176258</v>
+        <v>982.1666471204771</v>
       </c>
       <c r="T3" t="n">
-        <v>924.2277096176258</v>
+        <v>982.1666471204771</v>
       </c>
       <c r="U3" t="n">
-        <v>924.2277096176258</v>
+        <v>982.1666471204771</v>
       </c>
       <c r="V3" t="n">
-        <v>924.2277096176258</v>
+        <v>982.1666471204771</v>
       </c>
       <c r="W3" t="n">
-        <v>924.2277096176258</v>
+        <v>727.9292903922756</v>
       </c>
       <c r="X3" t="n">
-        <v>716.376209412093</v>
+        <v>727.9292903922756</v>
       </c>
       <c r="Y3" t="n">
-        <v>508.6159106471391</v>
+        <v>520.1689916273217</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>190.0068081091215</v>
+        <v>343.9546663945495</v>
       </c>
       <c r="C4" t="n">
-        <v>21.07062518121458</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="D4" t="n">
-        <v>21.07062518121458</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="E4" t="n">
-        <v>21.07062518121458</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="F4" t="n">
-        <v>21.07062518121458</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="G4" t="n">
-        <v>21.07062518121458</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="H4" t="n">
-        <v>21.07062518121458</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I4" t="n">
-        <v>21.07062518121458</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J4" t="n">
-        <v>21.07062518121458</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
-        <v>126.3277805481203</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L4" t="n">
-        <v>316.547135250486</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M4" t="n">
-        <v>527.4958971570835</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N4" t="n">
-        <v>738.8633854210614</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O4" t="n">
-        <v>918.0791761376813</v>
+        <v>918.4699372075542</v>
       </c>
       <c r="P4" t="n">
-        <v>1047.908563351424</v>
+        <v>1048.360858816803</v>
       </c>
       <c r="Q4" t="n">
-        <v>1053.531259060729</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>1053.531259060729</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>1053.531259060729</v>
+        <v>848.0684854165359</v>
       </c>
       <c r="T4" t="n">
-        <v>892.3830083828059</v>
+        <v>848.0684854165359</v>
       </c>
       <c r="U4" t="n">
-        <v>892.3830083828059</v>
+        <v>848.0684854165359</v>
       </c>
       <c r="V4" t="n">
-        <v>637.698520176919</v>
+        <v>593.383997210649</v>
       </c>
       <c r="W4" t="n">
-        <v>371.6552729393612</v>
+        <v>593.383997210649</v>
       </c>
       <c r="X4" t="n">
-        <v>371.6552729393612</v>
+        <v>525.6031312247892</v>
       </c>
       <c r="Y4" t="n">
-        <v>371.6552729393612</v>
+        <v>525.6031312247892</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>801.1705019471533</v>
+        <v>560.7979242836798</v>
       </c>
       <c r="C5" t="n">
-        <v>553.8524235344764</v>
+        <v>560.7979242836798</v>
       </c>
       <c r="D5" t="n">
-        <v>553.8524235344764</v>
+        <v>560.7979242836798</v>
       </c>
       <c r="E5" t="n">
-        <v>553.8524235344764</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="F5" t="n">
         <v>287.4747669672984</v>
@@ -4598,19 +4600,19 @@
         <v>1054.855520006025</v>
       </c>
       <c r="U5" t="n">
-        <v>801.1705019471533</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V5" t="n">
-        <v>801.1705019471533</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W5" t="n">
-        <v>801.1705019471533</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="X5" t="n">
-        <v>801.1705019471533</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="Y5" t="n">
-        <v>801.1705019471533</v>
+        <v>788.4778634388466</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>449.8779753016586</v>
+        <v>377.3122847195597</v>
       </c>
       <c r="C6" t="n">
-        <v>449.8779753016586</v>
+        <v>202.8592554384327</v>
       </c>
       <c r="D6" t="n">
-        <v>449.8779753016586</v>
+        <v>202.8592554384327</v>
       </c>
       <c r="E6" t="n">
-        <v>449.8779753016586</v>
+        <v>202.8592554384327</v>
       </c>
       <c r="F6" t="n">
-        <v>303.3434173285435</v>
+        <v>202.8592554384327</v>
       </c>
       <c r="G6" t="n">
-        <v>165.9467308776107</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="H6" t="n">
         <v>65.46256898749988</v>
@@ -4644,19 +4646,19 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J6" t="n">
-        <v>117.4455628004801</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>192.1295835699343</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L6" t="n">
-        <v>338.874007230231</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4746963267547</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N6" t="n">
-        <v>739.5286634293598</v>
+        <v>648.3904695545984</v>
       </c>
       <c r="O6" t="n">
         <v>909.4672107560896</v>
@@ -4674,22 +4676,22 @@
         <v>1036.519636212815</v>
       </c>
       <c r="T6" t="n">
-        <v>1036.519636212815</v>
+        <v>839.7105578442523</v>
       </c>
       <c r="U6" t="n">
-        <v>1036.519636212815</v>
+        <v>839.7105578442523</v>
       </c>
       <c r="V6" t="n">
-        <v>1036.519636212815</v>
+        <v>604.5584496125095</v>
       </c>
       <c r="W6" t="n">
-        <v>825.9448125272595</v>
+        <v>604.5584496125095</v>
       </c>
       <c r="X6" t="n">
-        <v>618.0933123217267</v>
+        <v>396.7069494069767</v>
       </c>
       <c r="Y6" t="n">
-        <v>618.0933123217267</v>
+        <v>377.3122847195597</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>334.3512869290737</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="C7" t="n">
-        <v>334.3512869290737</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D7" t="n">
-        <v>184.2346475167379</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E7" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F7" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G7" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H7" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I7" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J7" t="n">
         <v>21.09711040012049</v>
@@ -4735,10 +4737,10 @@
         <v>527.7368878375335</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227045</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075542</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4747,28 +4749,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="S7" t="n">
-        <v>848.0684854165359</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="T7" t="n">
-        <v>848.0684854165359</v>
+        <v>781.8419744324938</v>
       </c>
       <c r="U7" t="n">
-        <v>600.7289434962516</v>
+        <v>515.4643178653158</v>
       </c>
       <c r="V7" t="n">
-        <v>600.7289434962516</v>
+        <v>515.4643178653158</v>
       </c>
       <c r="W7" t="n">
-        <v>334.3512869290737</v>
+        <v>249.0866612981378</v>
       </c>
       <c r="X7" t="n">
-        <v>334.3512869290737</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="Y7" t="n">
-        <v>334.3512869290737</v>
+        <v>21.09711040012049</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1617.332751740275</v>
+        <v>1564.073594622427</v>
       </c>
       <c r="C8" t="n">
-        <v>1248.370234799863</v>
+        <v>1195.111077682016</v>
       </c>
       <c r="D8" t="n">
-        <v>1248.370234799863</v>
+        <v>836.8453790752653</v>
       </c>
       <c r="E8" t="n">
-        <v>1248.370234799863</v>
+        <v>836.8453790752653</v>
       </c>
       <c r="F8" t="n">
-        <v>837.3843300102556</v>
+        <v>466.9174772151885</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>51.21125520685567</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.21125520685567</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.21125520685567</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.370225146717</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>442.1757437607421</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872913</v>
+        <v>795.1862829045924</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1219.647962995226</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1655.591685209584</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2053.905718940596</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2359.356530550198</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2540.564622661164</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2560.562760342783</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926625</v>
+        <v>2560.562760342783</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.89447953245</v>
+        <v>2560.562760342783</v>
       </c>
       <c r="U8" t="n">
-        <v>2228.89447953245</v>
+        <v>2306.981581868353</v>
       </c>
       <c r="V8" t="n">
-        <v>2228.89447953245</v>
+        <v>2306.981581868353</v>
       </c>
       <c r="W8" t="n">
-        <v>1876.125824262336</v>
+        <v>1954.212926598239</v>
       </c>
       <c r="X8" t="n">
-        <v>1876.125824262336</v>
+        <v>1954.212926598239</v>
       </c>
       <c r="Y8" t="n">
-        <v>1876.125824262336</v>
+        <v>1564.073594622427</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041138965631</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8510846154361</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9166749541848</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792199487294</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446619756144</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182518</v>
+        <v>165.4424639718026</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.66559839993887</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.21125520685567</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>113.4887579637188</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310613</v>
+        <v>298.085754314818</v>
       </c>
       <c r="L9" t="n">
-        <v>593.0223835625329</v>
+        <v>592.6217377482993</v>
       </c>
       <c r="M9" t="n">
-        <v>956.284402521753</v>
+        <v>955.6882062226007</v>
       </c>
       <c r="N9" t="n">
-        <v>1343.569531118698</v>
+        <v>1343.168537559996</v>
       </c>
       <c r="O9" t="n">
-        <v>1675.63996629486</v>
+        <v>1675.055347547385</v>
       </c>
       <c r="P9" t="n">
-        <v>2214.708848710445</v>
+        <v>2237.368846930548</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2560.562760342783</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400155</v>
+        <v>2560.562760342783</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.617474780096</v>
+        <v>2424.826280251699</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610870780833</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520714847062</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.368606615319</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131249887118</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279749681585</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519450916631</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>451.9049743189132</v>
+        <v>307.202894359696</v>
       </c>
       <c r="C10" t="n">
-        <v>451.9049743189132</v>
+        <v>307.202894359696</v>
       </c>
       <c r="D10" t="n">
-        <v>451.9049743189132</v>
+        <v>157.0862549473602</v>
       </c>
       <c r="E10" t="n">
-        <v>303.9918807365201</v>
+        <v>157.0862549473602</v>
       </c>
       <c r="F10" t="n">
-        <v>157.1019332386098</v>
+        <v>157.0862549473602</v>
       </c>
       <c r="G10" t="n">
-        <v>157.1019332386098</v>
+        <v>157.0862549473602</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>157.0862549473602</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.21125520685567</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.63468308380149</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.2500215676568</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.3850043368921</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>823.8653899904036</v>
       </c>
       <c r="N10" t="n">
-        <v>1123.088724245823</v>
+        <v>1122.635640101613</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1382.582027931091</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1581.4903876165</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1635.769145477363</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.15605541262</v>
       </c>
       <c r="S10" t="n">
-        <v>1439.817372234358</v>
+        <v>1336.515802634454</v>
       </c>
       <c r="T10" t="n">
-        <v>1223.69735091898</v>
+        <v>1295.376453630272</v>
       </c>
       <c r="U10" t="n">
-        <v>934.5790134228174</v>
+        <v>1006.258080124914</v>
       </c>
       <c r="V10" t="n">
-        <v>679.8945252169306</v>
+        <v>1006.258080124914</v>
       </c>
       <c r="W10" t="n">
-        <v>679.8945252169306</v>
+        <v>716.840910087953</v>
       </c>
       <c r="X10" t="n">
-        <v>451.9049743189132</v>
+        <v>488.8513591899357</v>
       </c>
       <c r="Y10" t="n">
-        <v>451.9049743189132</v>
+        <v>488.8513591899357</v>
       </c>
     </row>
     <row r="11">
@@ -5015,31 +5017,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611466</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168634</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362708</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075809</v>
@@ -5048,43 +5050,43 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756267</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468473</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400721</v>
+        <v>989.3306680894888</v>
       </c>
       <c r="C13" t="n">
-        <v>513.8536007400721</v>
+        <v>820.3944851615819</v>
       </c>
       <c r="D13" t="n">
-        <v>513.8536007400721</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5206,7 +5208,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5215,13 +5217,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
         <v>2197.062545487568</v>
@@ -5233,16 +5235,16 @@
         <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X13" t="n">
-        <v>916.294644713842</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703119</v>
+        <v>1170.979132919728</v>
       </c>
     </row>
     <row r="14">
@@ -5255,70 +5257,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756267</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756267</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756267</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438167</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O15" t="n">
         <v>1859.536823237711</v>
@@ -5410,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>653.7474797708871</v>
+        <v>989.3306680894883</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429803</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
         <v>484.8112968429803</v>
@@ -5431,55 +5433,55 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1573.595244679635</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W16" t="n">
-        <v>1284.178074642674</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X16" t="n">
-        <v>1056.188523744657</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y16" t="n">
-        <v>835.3959446011269</v>
+        <v>1170.979132919728</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,13 +5503,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
@@ -5516,7 +5518,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,28 +5527,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5577,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797191</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797191</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797191</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>691.195150674524</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.793114229131</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>1870.702844468418</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400721</v>
+        <v>784.5811134804959</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121652</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121652</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121652</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121652</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270452</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.294644713842</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703119</v>
+        <v>966.2295783107356</v>
       </c>
     </row>
     <row r="20">
@@ -5732,67 +5734,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111739</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075831</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797191</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349512</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M21" t="n">
-        <v>923.0670414349512</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578603</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5947,13 +5949,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1413.271624709496</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1185.282073811479</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>964.4894946679489</v>
       </c>
     </row>
     <row r="23">
@@ -5969,13 +5971,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,13 +5986,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6063,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6175,22 +6177,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="26">
@@ -6212,22 +6214,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6303,28 +6305,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>763.7541388327643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="C28" t="n">
-        <v>594.8179559048574</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D28" t="n">
-        <v>444.7013164925216</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E28" t="n">
-        <v>444.7013164925216</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>444.7013164925216</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>277.5052172074016</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>135.7933860495997</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6409,25 +6411,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741512</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704551</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>1166.195182806534</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>945.402603663004</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="29">
@@ -6449,25 +6451,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014779</v>
@@ -6497,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C30" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D30" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F30" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G30" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>2233.355914590558</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>2233.355914590558</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>2567.280686761779</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>3062.606292977538</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>3062.606292977538</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>3690.204256532144</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>4033.948342528643</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>4457.571492023711</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R30" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S30" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T30" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U30" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V30" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W30" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X30" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y30" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="31">
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>950.7540666811333</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2414.36154645157</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2414.36154645157</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>2125.286319795768</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1870.601831589881</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1581.18466155292</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1353.195110654903</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6686,34 +6688,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6728,19 +6730,19 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6783,22 +6785,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.79311422913</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468417</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>653.7474797708871</v>
+        <v>866.4638174991043</v>
       </c>
       <c r="C34" t="n">
-        <v>484.8112968429803</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429803</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6892,16 +6894,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1496.894412370891</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1496.894412370891</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1268.904861472874</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>1048.112282329344</v>
       </c>
     </row>
     <row r="35">
@@ -6926,19 +6928,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6962,16 +6964,16 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
         <v>3467.980956852889</v>
@@ -7017,25 +7019,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>417.9651836029414</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N36" t="n">
-        <v>2148.04349261611</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3275.130390493382</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C37" t="n">
-        <v>3106.194207565476</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D37" t="n">
-        <v>2956.07756815314</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E37" t="n">
-        <v>2808.164474570747</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F37" t="n">
-        <v>2661.274527072836</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>2494.078427787716</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>2352.366596629915</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>3932.255922673039</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V37" t="n">
-        <v>3677.571434467152</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W37" t="n">
-        <v>3677.571434467152</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="X37" t="n">
-        <v>3677.571434467152</v>
+        <v>1494.787041406604</v>
       </c>
       <c r="Y37" t="n">
-        <v>3456.778855323622</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="38">
@@ -7163,19 +7165,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7208,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7257,22 +7259,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>868.6673633290469</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F40" t="n">
         <v>402.7245934908939</v>
@@ -7354,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2332.274843099484</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2332.274843099484</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>2043.199616443682</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1788.515128237795</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1499.097958200834</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>1271.108407302817</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>1050.315828159287</v>
       </c>
     </row>
     <row r="41">
@@ -7406,22 +7408,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7430,7 +7432,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7448,10 +7450,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7488,22 +7490,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>150.8995423128889</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>484.8243144841095</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O42" t="n">
-        <v>2297.690135143765</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2939.372134388636</v>
+        <v>1057.955258982919</v>
       </c>
       <c r="C43" t="n">
-        <v>2939.372134388636</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D43" t="n">
-        <v>2789.2554949763</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E43" t="n">
-        <v>2728.681365661313</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>3677.571434467152</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W43" t="n">
-        <v>3388.154264430192</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="X43" t="n">
-        <v>3160.164713532175</v>
+        <v>1460.396302956689</v>
       </c>
       <c r="Y43" t="n">
-        <v>2939.372134388636</v>
+        <v>1239.603723813159</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406466</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168588</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362663</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111729</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615664</v>
       </c>
       <c r="C45" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334537</v>
       </c>
       <c r="D45" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673286</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>2598.54608366783</v>
       </c>
       <c r="F45" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694715</v>
       </c>
       <c r="G45" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740623</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>2231.588527385789</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>2231.588527385789</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>2381.235169913444</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>2715.159942084665</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>3210.485548300423</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>3807.864035926975</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>4138.923422159305</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="R45" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S45" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301204</v>
       </c>
       <c r="T45" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.415660022978</v>
       </c>
       <c r="U45" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566163</v>
       </c>
       <c r="V45" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.23547033442</v>
       </c>
       <c r="W45" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606219</v>
       </c>
       <c r="X45" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400686</v>
       </c>
       <c r="Y45" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635732</v>
       </c>
     </row>
     <row r="46">
@@ -7780,37 +7782,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>558.019349243338</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>558.019349243338</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310022</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310022</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7837,19 +7839,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8000,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.59164343877262</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.109135423079195</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8064,13 +8066,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>5.262887399594234</v>
       </c>
       <c r="N3" t="n">
-        <v>5.02520745391169</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>91.87356436301371</v>
+        <v>92.05878169167806</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8143,7 +8145,7 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>178.5096609094456</v>
+        <v>178.5096609094455</v>
       </c>
       <c r="N4" t="n">
         <v>171.8177168444618</v>
@@ -8155,7 +8157,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
-        <v>64.50521872720164</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8292,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>99.37288961069065</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8304,10 +8306,10 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>5.262887399594291</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>92.05878169167806</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8541,19 +8543,19 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>0.3999281462888575</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>294.8344935184731</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.98618304348508</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>2.330580173293129e-12</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -23416,16 +23418,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>26.9772909337316</v>
       </c>
       <c r="E13" t="n">
-        <v>117.6820817884482</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23473,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23653,16 +23655,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>108.2431272522977</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23698,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>72.11969353038485</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23893,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194133</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23953,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>42.31058222398323</v>
       </c>
     </row>
     <row r="20">
@@ -24127,19 +24129,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24187,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>266.2975548066615</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24367,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24424,10 +24426,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>75.03697526434118</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>50.29392045468958</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>39.70888054695403</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24651,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24838,16 +24840,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>148.7507642442407</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25081,10 +25083,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25132,10 +25134,10 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>62.56111625485147</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25330,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>66.73277020259152</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25366,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25375,10 +25377,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>6.257951202385328</v>
       </c>
     </row>
     <row r="38">
@@ -25552,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25594,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>67.48492792567578</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25783,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>40.30478226780127</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>86.4655746247314</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25843,10 +25845,10 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26020,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>43.72409101823405</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26077,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>796080.8414067762</v>
+        <v>796094.2749659079</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>801664.1422432185</v>
+        <v>801654.4632740369</v>
       </c>
     </row>
     <row r="5">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>777768.2610757275</v>
+        <v>777768.2610757274</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>777768.2610757276</v>
+        <v>777768.2610757275</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>777768.2610757274</v>
+        <v>777768.2610757276</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>777768.2610757276</v>
+        <v>777768.2610757275</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>777768.2610757274</v>
+        <v>777768.2610757276</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>777768.2610757274</v>
+        <v>777768.2610757275</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>777768.2610757274</v>
+        <v>777768.2610757276</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914264</v>
+        <v>656833.4158914261</v>
       </c>
       <c r="C2" t="n">
+        <v>656833.4158914266</v>
+      </c>
+      <c r="D2" t="n">
         <v>656833.4158914267</v>
-      </c>
-      <c r="D2" t="n">
-        <v>656833.4158914268</v>
       </c>
       <c r="E2" t="n">
         <v>645717.2797520051</v>
       </c>
       <c r="F2" t="n">
+        <v>645717.2797520049</v>
+      </c>
+      <c r="G2" t="n">
+        <v>645717.2797520051</v>
+      </c>
+      <c r="H2" t="n">
         <v>645717.279752005</v>
-      </c>
-      <c r="G2" t="n">
-        <v>645717.2797520049</v>
-      </c>
-      <c r="H2" t="n">
-        <v>645717.2797520049</v>
       </c>
       <c r="I2" t="n">
         <v>645717.2797520051</v>
       </c>
       <c r="J2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.2797520055</v>
       </c>
       <c r="K2" t="n">
-        <v>645717.2797520055</v>
+        <v>645717.2797520047</v>
       </c>
       <c r="L2" t="n">
+        <v>645717.2797520049</v>
+      </c>
+      <c r="M2" t="n">
         <v>645717.279752005</v>
-      </c>
-      <c r="M2" t="n">
-        <v>645717.2797520048</v>
       </c>
       <c r="N2" t="n">
         <v>645717.279752005</v>
       </c>
       <c r="O2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520048</v>
       </c>
       <c r="P2" t="n">
-        <v>645717.2797520052</v>
+        <v>645717.2797520049</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>679702.4124909315</v>
+        <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
-        <v>366.4703680921502</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>391128.3638059434</v>
+        <v>390680.007658079</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245465</v>
+        <v>507909.2320606933</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68912.53318642134</v>
+        <v>68999.15441911407</v>
       </c>
       <c r="K3" t="n">
-        <v>85.20559774216713</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95382.64613756971</v>
+        <v>95270.23779101766</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.293728927</v>
+        <v>132717.9756954691</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>252222.5944320855</v>
+        <v>252122.0652631775</v>
       </c>
       <c r="C4" t="n">
         <v>252122.0652631775</v>
       </c>
       <c r="D4" t="n">
-        <v>141542.8205525801</v>
+        <v>141668.850744721</v>
       </c>
       <c r="E4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680578</v>
       </c>
       <c r="F4" t="n">
         <v>11776.97621680582</v>
@@ -26433,31 +26435,31 @@
         <v>11776.97621680582</v>
       </c>
       <c r="H4" t="n">
-        <v>11776.97621680591</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="I4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="J4" t="n">
+        <v>11776.97621680586</v>
+      </c>
+      <c r="K4" t="n">
         <v>11776.97621680582</v>
       </c>
-      <c r="K4" t="n">
-        <v>11776.97621680578</v>
-      </c>
       <c r="L4" t="n">
-        <v>11776.97621680578</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="M4" t="n">
-        <v>11776.97621680586</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="N4" t="n">
-        <v>11776.97621680586</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="O4" t="n">
-        <v>11776.97621680568</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="P4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680592</v>
       </c>
     </row>
     <row r="5">
@@ -26467,22 +26469,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63021.46164557703</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
         <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92902.86757567897</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="H5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-338113.0526771676</v>
+        <v>-338424.4331672106</v>
       </c>
       <c r="C6" t="n">
-        <v>341297.0770558909</v>
+        <v>341663.5474239829</v>
       </c>
       <c r="D6" t="n">
-        <v>31224.45909305871</v>
+        <v>31581.68991294774</v>
       </c>
       <c r="E6" t="n">
-        <v>25332.33208674566</v>
+        <v>24908.54165059891</v>
       </c>
       <c r="F6" t="n">
         <v>532817.7737112921</v>
       </c>
       <c r="G6" t="n">
-        <v>532817.773711292</v>
+        <v>532817.7737112922</v>
       </c>
       <c r="H6" t="n">
-        <v>532817.7737112922</v>
+        <v>532817.7737112921</v>
       </c>
       <c r="I6" t="n">
         <v>532817.7737112922</v>
       </c>
       <c r="J6" t="n">
-        <v>463905.2405248709</v>
+        <v>463818.6192921784</v>
       </c>
       <c r="K6" t="n">
-        <v>532732.5681135505</v>
+        <v>532817.7737112917</v>
       </c>
       <c r="L6" t="n">
-        <v>437435.1275737224</v>
+        <v>437547.5359202743</v>
       </c>
       <c r="M6" t="n">
-        <v>400210.4799823648</v>
+        <v>400099.798015823</v>
       </c>
       <c r="N6" t="n">
         <v>532817.7737112921</v>
       </c>
       <c r="O6" t="n">
-        <v>532817.7737112923</v>
+        <v>532817.7737112918</v>
       </c>
       <c r="P6" t="n">
-        <v>532817.7737112923</v>
+        <v>532817.773711292</v>
       </c>
     </row>
   </sheetData>
@@ -26707,7 +26709,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26716,10 +26718,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>2.996581271752635e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.7700232960527</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
         <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>933.7024595627829</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.3828147651822</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
         <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.1406900856958</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26829,7 +26831,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26917,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26932,19 +26934,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>-6.029462643449993e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>2.996581271752635e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>-1.539589619813428e-13</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.7700232960527</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2849904734255233</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>320.0098783480609</v>
+        <v>319.6474457933047</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241351</v>
+        <v>434.2730407788911</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.3828147651822</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3310652363239228</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.8709520985326</v>
+        <v>376.4268100841897</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996103</v>
+        <v>532.5675980139525</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.3828147651822</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3310652363239228</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985326</v>
+        <v>376.4268100841897</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996103</v>
+        <v>532.5675980139525</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.3828147651822</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3310652363239228</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985326</v>
+        <v>376.4268100841897</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996103</v>
+        <v>532.5675980139525</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>161.959597166965</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27385,16 +27387,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>366.9992923165256</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>143.4932309765292</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>149.4525055708732</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>314.2053659305181</v>
+        <v>50.47975262776185</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,10 +27432,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1482595335101</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27455,25 +27457,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0233325848002</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27503,25 +27505,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.19058462642685</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
-        <v>19.15080763951693</v>
+        <v>75.18795125550683</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8434583985096</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8545278323952</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27549,16 +27551,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8841809557937</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3867285273815</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1660284180232</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>15.10853304825636</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5277104718863</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7281204196193</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>63.67977353665998</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2586585345273</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>23.14018357140878</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>158.606598063036</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>157.3307018998654</v>
       </c>
       <c r="C5" t="n">
-        <v>120.4279941424575</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>118.2164900707556</v>
       </c>
       <c r="F5" t="n">
-        <v>143.1621657402053</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>149.1202946442039</v>
@@ -27670,13 +27672,13 @@
         <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>85.52708871590687</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27692,10 +27694,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -27704,13 +27706,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27746,22 +27748,22 @@
         <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>43.22590771221996</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>186.4819777367615</v>
       </c>
     </row>
     <row r="7">
@@ -27777,10 +27779,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27795,7 +27797,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>223.2143458795659</v>
+        <v>80.43553864543429</v>
       </c>
       <c r="U7" t="n">
-        <v>41.39248400159613</v>
+        <v>22.54475050117135</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,7 +27839,7 @@
         <v>22.80911833508486</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>126.5286998666404</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>40.64742290023537</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0334742203004</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.76608425465034</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4854171348406</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6645630646898</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27919,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27983,7 +27985,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>1.776449164530106</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -28008,25 +28010,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>166.3072536117062</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2573199590395</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,22 +28058,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>6.789874894987349</v>
+        <v>180.0235329961984</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28102,10 +28104,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-2.711560093937803e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28138,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
     </row>
     <row r="12">
@@ -29272,25 +29274,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29323,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
     </row>
     <row r="27">
@@ -29983,25 +29985,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30034,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30220,25 +30222,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30271,22 +30273,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -30684,7 +30686,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>-3.128476033643638e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -30712,7 +30714,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.467417179079607</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H2" t="n">
-        <v>25.26943618524903</v>
+        <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.12510079646664</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J2" t="n">
-        <v>209.418948802908</v>
+        <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>313.8647179933478</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L2" t="n">
-        <v>389.3769364876054</v>
+        <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.2568667460624</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N2" t="n">
-        <v>440.2674158061224</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O2" t="n">
-        <v>415.7320362316495</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P2" t="n">
-        <v>354.8176746231216</v>
+        <v>354.9824263269073</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.4532968973331</v>
+        <v>266.5770185656231</v>
       </c>
       <c r="R2" t="n">
-        <v>154.9938943753595</v>
+        <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.2262689682766</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T2" t="n">
-        <v>10.80111870142099</v>
+        <v>10.8061339609081</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1973933743263685</v>
+        <v>0.1974850295540029</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.320184578410378</v>
+        <v>1.32079757678718</v>
       </c>
       <c r="H3" t="n">
-        <v>12.7502036914897</v>
+        <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.45372342333976</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7284912435875</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K3" t="n">
-        <v>213.1808579970828</v>
+        <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.6479717289726</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M3" t="n">
-        <v>334.5046626963487</v>
+        <v>334.6599825043656</v>
       </c>
       <c r="N3" t="n">
-        <v>343.3580057682324</v>
+        <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.1054948466129</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P3" t="n">
-        <v>252.0973516439957</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q3" t="n">
-        <v>168.520403377437</v>
+        <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>81.96724952621628</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S3" t="n">
-        <v>24.52184951564888</v>
+        <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.321270296312003</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08685424857963014</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.106798402665013</v>
+        <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.840443980058032</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I4" t="n">
-        <v>33.28444650923513</v>
+        <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.25064706841641</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K4" t="n">
-        <v>128.5898507823533</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L4" t="n">
-        <v>164.5507370653057</v>
+        <v>164.6271425440336</v>
       </c>
       <c r="M4" t="n">
-        <v>173.4956805195711</v>
+        <v>173.576239384051</v>
       </c>
       <c r="N4" t="n">
-        <v>169.3703410187289</v>
+        <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.4409233148693</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P4" t="n">
-        <v>133.862235900503</v>
+        <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.67927351770396</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R4" t="n">
-        <v>49.76568090528321</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28847761735299</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T4" t="n">
-        <v>4.729047720477782</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06037082196354623</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.753577726885557</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.44132789546671</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7098053157556</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.5802175972533</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.469162776319</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.342717135493</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.095405035994</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>669.7602577525076</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.4356192307894</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.7691690983021</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.3441667542129</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.785676886475</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.53465245140471</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.43128649944153</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3002862181508444</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.008341139436929</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.3963473203514</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.1468330902627</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575841</v>
+        <v>189.7441951079425</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>324.3030514502168</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.0654741571281</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>508.8678404617166</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.3360580152214</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>477.8354464519084</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.5050724947589</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.3629847463702</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.6933209204789</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.30405581366399</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.095024154133936</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321277065419033</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654579</v>
+        <v>1.683725746752559</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231072</v>
+        <v>14.96985254840004</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.63422518415879</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0856174753787</v>
+        <v>119.0394102954059</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>195.6183185772518</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227908</v>
+        <v>250.3240987490123</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>263.9316641023125</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.655959046235</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>237.9869810046254</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169137</v>
+        <v>203.6389757708731</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097484</v>
+        <v>140.9890713939802</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.70643221307414</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.34274778658777</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.194100917942751</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09183958618650333</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,40 +31752,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31792,7 +31794,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31838,34 +31840,34 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>368.6279838366843</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>690.2058188111466</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31908,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31932,7 +31934,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31944,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>583.1096135868568</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>301.6445156724565</v>
       </c>
       <c r="P15" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>379.4203056753705</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32549,19 +32551,19 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>518.439455159358</v>
       </c>
       <c r="N21" t="n">
-        <v>519.7862086120941</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
@@ -32570,10 +32572,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32704,7 +32706,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
@@ -32783,13 +32785,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32798,10 +32800,10 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>705.9257335045849</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>338.6542681503486</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
@@ -32810,7 +32812,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33023,7 +33025,7 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
@@ -33032,7 +33034,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>583.1096135868578</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33047,7 +33049,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,10 +33259,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33269,19 +33271,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>489.8124929257566</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33503,10 +33505,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>506.5665344352332</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33518,10 +33520,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33737,28 +33739,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>465.2641870096817</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33895,7 +33897,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
         <v>867.846407116256</v>
@@ -33977,10 +33979,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>399.9031616963283</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33992,10 +33994,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34208,7 +34210,7 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>184.4971006716334</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34220,13 +34222,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>391.925066926462</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34357,37 +34359,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663297</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34396,10 +34398,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34445,22 +34447,22 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N45" t="n">
         <v>465.7451325200306</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34472,10 +34474,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34521,28 +34523,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34551,7 +34553,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.37304427622172</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K2" t="n">
-        <v>93.77486694836728</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L2" t="n">
-        <v>153.6105215176182</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M2" t="n">
-        <v>202.9106335187896</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N2" t="n">
-        <v>210.8543522095314</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O2" t="n">
-        <v>185.6338248099628</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P2" t="n">
-        <v>123.5846788678521</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.14760702288365</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.3394190227238</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L3" t="n">
-        <v>148.0935919490984</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M3" t="n">
-        <v>192.3706287743304</v>
+        <v>197.7888359819415</v>
       </c>
       <c r="N3" t="n">
-        <v>217.0415011388108</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O3" t="n">
-        <v>263.3828147651822</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="P3" t="n">
-        <v>118.1229442296655</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.53862929141548</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3203589564704</v>
+        <v>106.3800667966406</v>
       </c>
       <c r="L4" t="n">
-        <v>192.1407623256218</v>
+        <v>192.2171678043497</v>
       </c>
       <c r="M4" t="n">
-        <v>213.0795574814117</v>
+        <v>213.1601163458915</v>
       </c>
       <c r="N4" t="n">
-        <v>213.5025133979575</v>
+        <v>213.581156752698</v>
       </c>
       <c r="O4" t="n">
-        <v>181.026051228909</v>
+        <v>181.0986910958077</v>
       </c>
       <c r="P4" t="n">
-        <v>131.1407951653965</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.67949061545976</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>97.32166909127238</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>75.43840481763047</v>
@@ -35024,10 +35026,10 @@
         <v>192.5259485823473</v>
       </c>
       <c r="N6" t="n">
-        <v>212.1757243460657</v>
+        <v>217.43861174566</v>
       </c>
       <c r="O6" t="n">
-        <v>171.6550983098281</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="P6" t="n">
         <v>118.240000033741</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.534313070567</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.3793117313385</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.5763021655058</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>428.7491718087213</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.3471941559167</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.3374078091026</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.5361733430325</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.0384768797635</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.20013907234292</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091739</v>
+        <v>62.90656844127585</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>186.4616124758578</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.5110943772539</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.7338065396983</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.394274078177</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.2392020074639</v>
       </c>
       <c r="P9" t="n">
-        <v>544.5140226420053</v>
+        <v>567.9934337203658</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>326.4584983961977</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.68023017873315</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.348826751369</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>277.9141240093285</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>303.5155410641531</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.7881314254636</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.5721089186651</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9175350357665</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.82702814228584</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35486,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>237.286271753351</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>547.6095743667022</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789216</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35577,7 +35579,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>440.9755796648384</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>159.048271228012</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789216</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36118,7 +36120,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396443</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
         <v>479.454324036777</v>
@@ -36130,7 +36132,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O20" t="n">
         <v>696.488651224316</v>
@@ -36197,19 +36199,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>376.3054212373396</v>
       </c>
       <c r="N21" t="n">
-        <v>388.4444965287608</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
@@ -36218,10 +36220,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
@@ -36431,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36446,10 +36448,10 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>574.5840214212516</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>196.0580237059041</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
@@ -36458,7 +36460,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36592,7 +36594,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
         <v>479.454324036777</v>
@@ -36671,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36680,7 +36682,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36695,7 +36697,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36917,19 +36919,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>347.2162484813122</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37151,10 +37153,10 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>364.4325005132149</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37166,10 +37168,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37385,28 +37387,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>327.4227480353227</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37543,7 +37545,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
@@ -37625,10 +37627,10 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>261.3487819164541</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37640,10 +37642,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37856,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>57.6594740049667</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37868,13 +37870,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>257.9506595121318</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38011,31 +38013,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396434</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38093,22 +38095,22 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N45" t="n">
         <v>334.4034204366973</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38172,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K46" t="n">
         <v>264.3325884096349</v>
@@ -38181,19 +38183,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P46" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_18_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_18_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2621800.494395764</v>
+        <v>2623561.024698548</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283181</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>263.7138800015063</v>
+        <v>212.5689651179051</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -718,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>212.5689651179052</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="Y2" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
     </row>
     <row r="3">
@@ -746,10 +746,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>125.2783963262411</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150558</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -803,10 +803,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>171.9454555014555</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -822,7 +822,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9005633097636834</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -867,22 +867,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>68.36004337105317</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -898,13 +898,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D5" t="n">
-        <v>263.7138800015062</v>
+        <v>97.26234557100796</v>
       </c>
       <c r="E5" t="n">
-        <v>212.568965117905</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -958,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X5" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -974,19 +974,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1034,16 +1034,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>21.96407185991149</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>148.6642628734519</v>
       </c>
     </row>
     <row r="7">
@@ -1065,7 +1065,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1074,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>2.214688090590111</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888208</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>147.6357361135216</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1144,7 +1144,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>232.1196458343639</v>
+        <v>232.1196458343657</v>
       </c>
       <c r="G8" t="n">
         <v>11.54915978824949</v>
@@ -1229,10 +1229,10 @@
         <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83909691614507</v>
+        <v>92.83909691614505</v>
       </c>
       <c r="I9" t="n">
-        <v>18.47335059662269</v>
+        <v>20.24979976115235</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3791152901738</v>
+        <v>132.602666125646</v>
       </c>
       <c r="T9" t="n">
         <v>192.0697045406877</v>
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>90.35889523376044</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>90.06308666747351</v>
+        <v>286.2271897703044</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1381,13 +1381,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187863</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444145</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1423,19 +1423,19 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576171</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1530,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>110.0177171766865</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053468</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1618,13 +1618,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1666,13 +1666,13 @@
         <v>250.9057009881287</v>
       </c>
       <c r="V14" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784708</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1770,13 +1770,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>129.5380597272486</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>62.14989839348819</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1858,10 +1858,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187887</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2004,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>110.0177171766865</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2095,10 +2095,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2301,7 +2301,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>229.2938944146496</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2490,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="27">
@@ -2718,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>83.06560892428213</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>27.0291980517616</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3079,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428212</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3514,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417105</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3666,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703271</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3957,7 +3957,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>205.6779548755971</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3988,7 +3988,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>409.8033385187866</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4149,13 +4149,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>51.3656974031032</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4197,10 +4197,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>14.53306611597379</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>307.3840804899465</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="C2" t="n">
-        <v>307.3840804899465</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="D2" t="n">
-        <v>41.00642392276843</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="E2" t="n">
-        <v>41.00642392276843</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="F2" t="n">
-        <v>34.06092317356496</v>
+        <v>34.06092317356494</v>
       </c>
       <c r="G2" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H2" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I2" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917556</v>
+        <v>49.28269087917573</v>
       </c>
       <c r="K2" t="n">
         <v>142.264087905254</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515906</v>
+        <v>294.5174947515904</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030605</v>
+        <v>495.5981834030602</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991317</v>
+        <v>704.5463761991311</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358416</v>
+        <v>888.5149683358409</v>
       </c>
       <c r="P2" t="n">
-        <v>1011.026904601763</v>
+        <v>1011.026904601762</v>
       </c>
       <c r="Q2" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R2" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="U2" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="V2" t="n">
-        <v>840.1393936243026</v>
+        <v>788.4778634388465</v>
       </c>
       <c r="W2" t="n">
-        <v>840.1393936243026</v>
+        <v>788.4778634388465</v>
       </c>
       <c r="X2" t="n">
-        <v>840.1393936243026</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="Y2" t="n">
-        <v>573.7617370571245</v>
+        <v>255.7225503044908</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>694.6220209084487</v>
+        <v>471.0283840154696</v>
       </c>
       <c r="C3" t="n">
-        <v>520.1689916273217</v>
+        <v>296.5753547343426</v>
       </c>
       <c r="D3" t="n">
-        <v>371.2345819660704</v>
+        <v>147.6409450730913</v>
       </c>
       <c r="E3" t="n">
-        <v>211.9971269606149</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957469</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L3" t="n">
-        <v>287.8512331313452</v>
+        <v>247.7358133554695</v>
       </c>
       <c r="M3" t="n">
-        <v>478.451922227869</v>
+        <v>438.3365024519933</v>
       </c>
       <c r="N3" t="n">
-        <v>739.5286634293602</v>
+        <v>648.3904695545983</v>
       </c>
       <c r="O3" t="n">
-        <v>909.46721075609</v>
+        <v>909.4672107560893</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789494</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q3" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R3" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="S3" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="T3" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="U3" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="V3" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="W3" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="X3" t="n">
-        <v>1036.519636212815</v>
+        <v>847.0040198004915</v>
       </c>
       <c r="Y3" t="n">
-        <v>862.8373579285167</v>
+        <v>639.2437210355376</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>190.9429532368796</v>
+        <v>355.3743762745875</v>
       </c>
       <c r="C4" t="n">
-        <v>22.0067703089727</v>
+        <v>186.4381933466805</v>
       </c>
       <c r="D4" t="n">
-        <v>22.0067703089727</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="E4" t="n">
-        <v>22.0067703089727</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="F4" t="n">
-        <v>22.0067703089727</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="G4" t="n">
-        <v>22.0067703089727</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="H4" t="n">
-        <v>22.0067703089727</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="I4" t="n">
-        <v>22.0067703089727</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="J4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
         <v>126.4133765287947</v>
       </c>
       <c r="L4" t="n">
-        <v>316.708372655101</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375336</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227047</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075544</v>
+        <v>918.4699372075539</v>
       </c>
       <c r="P4" t="n">
-        <v>1048.360858816803</v>
+        <v>1048.360858816802</v>
       </c>
       <c r="Q4" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="S4" t="n">
-        <v>848.0684854165363</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="T4" t="n">
-        <v>848.0684854165363</v>
+        <v>985.8049711463747</v>
       </c>
       <c r="U4" t="n">
-        <v>848.0684854165363</v>
+        <v>985.8049711463747</v>
       </c>
       <c r="V4" t="n">
-        <v>593.3839972106495</v>
+        <v>985.8049711463747</v>
       </c>
       <c r="W4" t="n">
-        <v>593.3839972106495</v>
+        <v>985.8049711463747</v>
       </c>
       <c r="X4" t="n">
-        <v>593.3839972106495</v>
+        <v>757.8154202483573</v>
       </c>
       <c r="Y4" t="n">
-        <v>372.5914180671193</v>
+        <v>537.0228411048272</v>
       </c>
     </row>
     <row r="5">
@@ -4546,43 +4546,43 @@
         <v>522.1002068716687</v>
       </c>
       <c r="C5" t="n">
-        <v>522.1002068716687</v>
+        <v>255.7225503044907</v>
       </c>
       <c r="D5" t="n">
-        <v>255.7225503044907</v>
+        <v>157.4777567984221</v>
       </c>
       <c r="E5" t="n">
-        <v>41.00642392276842</v>
+        <v>157.4777567984221</v>
       </c>
       <c r="F5" t="n">
-        <v>34.06092317356495</v>
+        <v>150.5322560492186</v>
       </c>
       <c r="G5" t="n">
-        <v>21.0971104001205</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="H5" t="n">
-        <v>21.0971104001205</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="I5" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917573</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052541</v>
+        <v>142.2640879052547</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515907</v>
+        <v>294.5174947515909</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030604</v>
+        <v>495.5981834030606</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991317</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358414</v>
+        <v>888.5149683358416</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4606,7 +4606,7 @@
         <v>1054.855520006025</v>
       </c>
       <c r="W5" t="n">
-        <v>788.4778634388467</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="X5" t="n">
         <v>522.1002068716687</v>
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>344.4845493424988</v>
+        <v>501.322152659818</v>
       </c>
       <c r="C6" t="n">
-        <v>170.0315200613718</v>
+        <v>326.869123378691</v>
       </c>
       <c r="D6" t="n">
-        <v>21.0971104001205</v>
+        <v>326.869123378691</v>
       </c>
       <c r="E6" t="n">
-        <v>21.0971104001205</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="F6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J6" t="n">
-        <v>21.0971104001205</v>
+        <v>117.4455628004801</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957469</v>
+        <v>192.1295835699343</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298714</v>
+        <v>338.874007230231</v>
       </c>
       <c r="M6" t="n">
-        <v>433.1262439263952</v>
+        <v>529.4746963267547</v>
       </c>
       <c r="N6" t="n">
-        <v>643.1802110290002</v>
+        <v>739.5286634293598</v>
       </c>
       <c r="O6" t="n">
-        <v>813.1187583557301</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P6" t="n">
-        <v>930.1763583891336</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q6" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V6" t="n">
-        <v>1014.333705041187</v>
+        <v>819.7034117742819</v>
       </c>
       <c r="W6" t="n">
-        <v>760.0963483129856</v>
+        <v>819.7034117742819</v>
       </c>
       <c r="X6" t="n">
-        <v>552.2448481074528</v>
+        <v>819.7034117742819</v>
       </c>
       <c r="Y6" t="n">
-        <v>344.4845493424988</v>
+        <v>669.537489679886</v>
       </c>
     </row>
     <row r="7">
@@ -4701,46 +4701,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>503.2874698569806</v>
+        <v>652.4144760322547</v>
       </c>
       <c r="C7" t="n">
-        <v>334.3512869290737</v>
+        <v>483.4782931043478</v>
       </c>
       <c r="D7" t="n">
-        <v>184.2346475167379</v>
+        <v>333.3616536920121</v>
       </c>
       <c r="E7" t="n">
-        <v>36.32155393434482</v>
+        <v>185.4485601096189</v>
       </c>
       <c r="F7" t="n">
-        <v>36.32155393434482</v>
+        <v>38.55861261170858</v>
       </c>
       <c r="G7" t="n">
-        <v>36.32155393434482</v>
+        <v>38.55861261170858</v>
       </c>
       <c r="H7" t="n">
-        <v>36.32155393434482</v>
+        <v>38.55861261170858</v>
       </c>
       <c r="I7" t="n">
-        <v>36.32155393434482</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="J7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287949</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551011</v>
+        <v>316.7083726551008</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375338</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227047</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075544</v>
+        <v>918.4699372075542</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4767,10 +4767,10 @@
         <v>1054.855520006025</v>
       </c>
       <c r="X7" t="n">
-        <v>905.7285138307504</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="Y7" t="n">
-        <v>684.9359346872203</v>
+        <v>834.0629408624944</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1410.357830041771</v>
+        <v>1410.357830041772</v>
       </c>
       <c r="C8" t="n">
-        <v>1041.395313101359</v>
+        <v>1041.395313101361</v>
       </c>
       <c r="D8" t="n">
-        <v>683.1296144946084</v>
+        <v>683.1296144946102</v>
       </c>
       <c r="E8" t="n">
-        <v>297.3413618963642</v>
+        <v>297.341361896366</v>
       </c>
       <c r="F8" t="n">
-        <v>62.87707317478446</v>
+        <v>62.87707317478449</v>
       </c>
       <c r="G8" t="n">
-        <v>51.21125520685568</v>
+        <v>51.21125520685571</v>
       </c>
       <c r="H8" t="n">
-        <v>51.21125520685568</v>
+        <v>51.21125520685571</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685568</v>
+        <v>51.21125520685571</v>
       </c>
       <c r="J8" t="n">
         <v>187.3702251467175</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607426</v>
+        <v>442.1757437607428</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045933</v>
+        <v>795.1862829045936</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995227</v>
+        <v>1219.647962995228</v>
       </c>
       <c r="N8" t="n">
         <v>1655.591685209585</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940597</v>
+        <v>2053.905718940598</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550199</v>
+        <v>2359.3565305502</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661164</v>
+        <v>2540.564622661166</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342784</v>
+        <v>2560.562760342786</v>
       </c>
       <c r="S8" t="n">
-        <v>2560.562760342784</v>
+        <v>2560.562760342786</v>
       </c>
       <c r="T8" t="n">
-        <v>2560.562760342784</v>
+        <v>2560.562760342786</v>
       </c>
       <c r="U8" t="n">
-        <v>2560.562760342784</v>
+        <v>2560.562760342786</v>
       </c>
       <c r="V8" t="n">
-        <v>2560.562760342784</v>
+        <v>2560.562760342786</v>
       </c>
       <c r="W8" t="n">
-        <v>2560.562760342784</v>
+        <v>2560.562760342786</v>
       </c>
       <c r="X8" t="n">
-        <v>2187.097002081704</v>
+        <v>2187.097002081706</v>
       </c>
       <c r="Y8" t="n">
-        <v>1796.957670105892</v>
+        <v>1796.957670105894</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>929.5097208010786</v>
+        <v>931.3041138965631</v>
       </c>
       <c r="C9" t="n">
-        <v>755.0566915199516</v>
+        <v>756.8510846154361</v>
       </c>
       <c r="D9" t="n">
-        <v>606.1222818587004</v>
+        <v>607.9166749541848</v>
       </c>
       <c r="E9" t="n">
-        <v>446.8848268532449</v>
+        <v>448.6792199487294</v>
       </c>
       <c r="F9" t="n">
-        <v>300.3502688801299</v>
+        <v>302.1446619756144</v>
       </c>
       <c r="G9" t="n">
-        <v>163.6480708763181</v>
+        <v>165.4424639718026</v>
       </c>
       <c r="H9" t="n">
-        <v>69.87120530445435</v>
+        <v>71.66559839993889</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685568</v>
+        <v>51.21125520685571</v>
       </c>
       <c r="J9" t="n">
-        <v>113.4887579637188</v>
+        <v>238.3188829507237</v>
       </c>
       <c r="K9" t="n">
-        <v>298.085754314818</v>
+        <v>684.7364639442758</v>
       </c>
       <c r="L9" t="n">
-        <v>592.6217377482993</v>
+        <v>979.2724473777573</v>
       </c>
       <c r="M9" t="n">
-        <v>1208.393778287028</v>
+        <v>1342.338915852059</v>
       </c>
       <c r="N9" t="n">
-        <v>1842.133061471867</v>
+        <v>1729.423318324628</v>
       </c>
       <c r="O9" t="n">
-        <v>2174.019871459257</v>
+        <v>2061.310128312018</v>
       </c>
       <c r="P9" t="n">
-        <v>2421.055229888881</v>
+        <v>2308.345486741642</v>
       </c>
       <c r="Q9" t="n">
-        <v>2536.272628442626</v>
+        <v>2560.562760342786</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342784</v>
+        <v>2560.562760342786</v>
       </c>
       <c r="S9" t="n">
-        <v>2424.826280251699</v>
+        <v>2426.620673347184</v>
       </c>
       <c r="T9" t="n">
-        <v>2230.816477685348</v>
+        <v>2232.610870780833</v>
       </c>
       <c r="U9" t="n">
-        <v>2002.726321751578</v>
+        <v>2004.520714847062</v>
       </c>
       <c r="V9" t="n">
-        <v>1767.574213519835</v>
+        <v>1769.368606615319</v>
       </c>
       <c r="W9" t="n">
-        <v>1513.336856791633</v>
+        <v>1515.131249887118</v>
       </c>
       <c r="X9" t="n">
-        <v>1305.485356586101</v>
+        <v>1307.279749681585</v>
       </c>
       <c r="Y9" t="n">
-        <v>1097.725057821147</v>
+        <v>1099.519450916631</v>
       </c>
     </row>
     <row r="10">
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>370.2640775470983</v>
+        <v>461.5356888943311</v>
       </c>
       <c r="C10" t="n">
-        <v>201.3278946191914</v>
+        <v>292.5995059664242</v>
       </c>
       <c r="D10" t="n">
-        <v>51.21125520685568</v>
+        <v>142.4828665540885</v>
       </c>
       <c r="E10" t="n">
-        <v>51.21125520685568</v>
+        <v>142.4828665540885</v>
       </c>
       <c r="F10" t="n">
-        <v>51.21125520685568</v>
+        <v>51.21125520685571</v>
       </c>
       <c r="G10" t="n">
-        <v>51.21125520685568</v>
+        <v>51.21125520685571</v>
       </c>
       <c r="H10" t="n">
-        <v>51.21125520685568</v>
+        <v>51.21125520685571</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685568</v>
+        <v>51.21125520685571</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380149</v>
+        <v>76.63468308380158</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676568</v>
+        <v>248.2500215676569</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368921</v>
+        <v>523.3850043368923</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904036</v>
+        <v>823.8653899904039</v>
       </c>
       <c r="N10" t="n">
         <v>1122.635640101613</v>
@@ -4995,19 +4995,19 @@
         <v>1635.769145477363</v>
       </c>
       <c r="U10" t="n">
-        <v>1544.796330661733</v>
+        <v>1346.650771972005</v>
       </c>
       <c r="V10" t="n">
-        <v>1290.111842455846</v>
+        <v>1091.966283766118</v>
       </c>
       <c r="W10" t="n">
-        <v>1000.694672418885</v>
+        <v>1091.966283766118</v>
       </c>
       <c r="X10" t="n">
-        <v>772.7051215208681</v>
+        <v>863.976732868101</v>
       </c>
       <c r="Y10" t="n">
-        <v>551.912542377338</v>
+        <v>643.1841537245708</v>
       </c>
     </row>
     <row r="11">
@@ -5017,58 +5017,58 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.773653616861</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362694</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797193</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474785</v>
@@ -5077,16 +5077,16 @@
         <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797193</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191926</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349515</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061504</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.528408326419</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400721</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5229,22 +5229,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X13" t="n">
-        <v>916.294644713842</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703119</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,16 +5351,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756267</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468473</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
         <v>1072.713683962606</v>
@@ -5372,7 +5372,7 @@
         <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>762.5477693179095</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C16" t="n">
-        <v>762.5477693179095</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D16" t="n">
-        <v>631.7012443408906</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>547.5889719879178</v>
       </c>
       <c r="F16" t="n">
         <v>484.8112968429803</v>
@@ -5433,55 +5433,55 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235166</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258107</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602305</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396418</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359457</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614396</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179095</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611466</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168634</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,16 +5588,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756267</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468473</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
         <v>1072.713683962606</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400721</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703119</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5731,31 +5731,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5770,31 +5770,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,16 +5825,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273908</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5968,7 +5968,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5977,52 +5977,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,16 +6062,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6220,55 +6220,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,16 +6299,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E28" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6457,43 +6457,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.852361107581</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,16 +6536,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D31" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6697,25 +6697,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6776,13 +6776,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6858,52 +6858,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6928,19 +6928,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,37 +6949,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,16 +7010,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270447</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,16 +7150,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
         <v>793.7736536168611</v>
@@ -7168,58 +7168,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192559</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7247,25 +7247,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="41">
@@ -7408,10 +7408,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121648</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="44">
@@ -7627,7 +7627,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7642,55 +7642,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7721,25 +7721,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1016.58045691144</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C46" t="n">
-        <v>847.644273983533</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D46" t="n">
-        <v>697.5276345711973</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888042</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W46" t="n">
-        <v>1419.02150088521</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X46" t="n">
-        <v>1419.02150088521</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y46" t="n">
-        <v>1198.22892174168</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,22 +8057,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418237</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>45.78351343583213</v>
+        <v>5.262887399594121</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>51.53815565544051</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>92.05878169167801</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8151,13 +8151,13 @@
         <v>171.8177168444618</v>
       </c>
       <c r="O4" t="n">
-        <v>163.0416663658825</v>
+        <v>163.0416663658821</v>
       </c>
       <c r="P4" t="n">
         <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
-        <v>65.34295837775173</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418237</v>
+        <v>99.37288961069065</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>97.32166909127245</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,19 +8531,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>255.2581536004319</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>249.1463441538078</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8552,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>138.3837121690891</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.98618304348504</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>57.22910392194137</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23469,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>57.22910392194146</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23658,13 +23658,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>19.07741329096268</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>83.27114962944304</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>57.22910392194137</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>57.22910392194143</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>65.54986409393022</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24621,7 +24621,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>121.5862749664508</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194174</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194174</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>46.45968844823091</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26085,10 +26085,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>271.9899322206172</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>777768.2610757276</v>
+        <v>777768.2610757275</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>777768.2610757275</v>
+        <v>777768.2610757274</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>777768.2610757275</v>
+        <v>777768.2610757274</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>777768.2610757274</v>
+        <v>777768.2610757275</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>777768.2610757275</v>
+        <v>777768.2610757274</v>
       </c>
     </row>
     <row r="12">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>777768.2610757275</v>
+        <v>777768.2610757276</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>656833.4158914264</v>
+      </c>
+      <c r="C2" t="n">
         <v>656833.4158914266</v>
       </c>
-      <c r="C2" t="n">
-        <v>656833.4158914265</v>
-      </c>
       <c r="D2" t="n">
-        <v>656833.4158914265</v>
+        <v>656833.4158914266</v>
       </c>
       <c r="E2" t="n">
-        <v>645717.2797520052</v>
+        <v>645717.279752005</v>
       </c>
       <c r="F2" t="n">
-        <v>645717.2797520052</v>
+        <v>645717.279752005</v>
       </c>
       <c r="G2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="H2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520047</v>
       </c>
       <c r="I2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520047</v>
       </c>
       <c r="J2" t="n">
         <v>645717.2797520049</v>
       </c>
       <c r="K2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520048</v>
       </c>
       <c r="L2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520047</v>
       </c>
       <c r="M2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520047</v>
       </c>
       <c r="N2" t="n">
         <v>645717.2797520048</v>
       </c>
       <c r="O2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.2797520047</v>
       </c>
       <c r="P2" t="n">
-        <v>645717.2797520052</v>
+        <v>645717.2797520047</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911932</v>
+        <v>680087.980591193</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580789</v>
+        <v>390680.0076580795</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606937</v>
+        <v>507909.2320606932</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.1544191141</v>
+        <v>68999.15441911406</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101763</v>
+        <v>95270.23779101785</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954692</v>
+        <v>132717.9756954689</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,16 +26423,16 @@
         <v>252122.0652631775</v>
       </c>
       <c r="D4" t="n">
-        <v>141668.850744721</v>
+        <v>141668.8507447208</v>
       </c>
       <c r="E4" t="n">
-        <v>11776.97621680574</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="F4" t="n">
-        <v>11776.97621680572</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="G4" t="n">
-        <v>11776.97621680573</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="H4" t="n">
         <v>11776.97621680582</v>
@@ -26441,10 +26441,10 @@
         <v>11776.97621680582</v>
       </c>
       <c r="J4" t="n">
-        <v>11776.97621680578</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="K4" t="n">
-        <v>11776.97621680578</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="L4" t="n">
         <v>11776.97621680582</v>
@@ -26453,7 +26453,7 @@
         <v>11776.97621680582</v>
       </c>
       <c r="N4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680586</v>
       </c>
       <c r="O4" t="n">
         <v>11776.97621680582</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426621</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.8032042662</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567897</v>
+        <v>92902.867575679</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-338424.4331672103</v>
       </c>
       <c r="C6" t="n">
-        <v>341663.5474239828</v>
+        <v>341663.5474239829</v>
       </c>
       <c r="D6" t="n">
-        <v>31581.68991294765</v>
+        <v>31581.68991294727</v>
       </c>
       <c r="E6" t="n">
-        <v>24561.16239624176</v>
+        <v>24873.80372516315</v>
       </c>
       <c r="F6" t="n">
-        <v>532470.3944569353</v>
+        <v>532783.0357858568</v>
       </c>
       <c r="G6" t="n">
-        <v>532470.3944569352</v>
+        <v>532783.0357858563</v>
       </c>
       <c r="H6" t="n">
-        <v>532470.3944569351</v>
+        <v>532783.0357858561</v>
       </c>
       <c r="I6" t="n">
-        <v>532470.3944569351</v>
+        <v>532783.0357858561</v>
       </c>
       <c r="J6" t="n">
-        <v>463471.2400378209</v>
+        <v>463783.8813667421</v>
       </c>
       <c r="K6" t="n">
-        <v>532470.3944569351</v>
+        <v>532783.0357858562</v>
       </c>
       <c r="L6" t="n">
-        <v>437200.1566659174</v>
+        <v>437512.7979948381</v>
       </c>
       <c r="M6" t="n">
-        <v>399752.4187614659</v>
+        <v>400065.0600903872</v>
       </c>
       <c r="N6" t="n">
-        <v>532470.3944569349</v>
+        <v>532783.0357858562</v>
       </c>
       <c r="O6" t="n">
-        <v>532470.3944569349</v>
+        <v>532783.0357858561</v>
       </c>
       <c r="P6" t="n">
-        <v>532470.3944569353</v>
+        <v>532783.0357858561</v>
       </c>
     </row>
   </sheetData>
@@ -26721,7 +26721,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627829</v>
+        <v>933.7024595627832</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,40 +26789,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.140690085696</v>
+        <v>640.1406900856964</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26831,7 +26831,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26934,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>-3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933045</v>
+        <v>319.647445793305</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788913</v>
+        <v>434.273040778891</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841898</v>
+        <v>376.4268100841902</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139531</v>
+        <v>532.5675980139522</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27029,22 +27029,22 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841896</v>
+        <v>376.4268100841904</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139533</v>
+        <v>532.567598013952</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841898</v>
+        <v>376.4268100841902</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139531</v>
+        <v>532.5675980139522</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>119.0199616619743</v>
+        <v>170.1648765455755</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>90.9691616191767</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27438,16 +27438,16 @@
         <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>115.1832933522297</v>
+        <v>64.03837846862882</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>106.0172206769629</v>
       </c>
       <c r="Y2" t="n">
-        <v>122.5240586545473</v>
+        <v>122.5240586545475</v>
       </c>
     </row>
     <row r="3">
@@ -27466,19 +27466,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>32.36668412915984</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120974</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
         <v>147.1499354121988</v>
@@ -27523,10 +27523,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>33.73724027584888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27542,7 +27542,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27560,7 +27560,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>14.1716357891184</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27587,22 +27587,22 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>154.8543025085127</v>
       </c>
       <c r="U4" t="n">
         <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27618,13 +27618,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>101.5590117695014</v>
       </c>
       <c r="D5" t="n">
-        <v>90.96916161917676</v>
+        <v>257.420696049675</v>
       </c>
       <c r="E5" t="n">
-        <v>169.3614049543568</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27678,10 +27678,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>85.52708871590681</v>
+        <v>85.52708871590687</v>
       </c>
       <c r="X5" t="n">
-        <v>106.0172206769628</v>
+        <v>106.0172206769629</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27694,28 +27694,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120974</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
-        <v>43.92180400150558</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
         <v>147.1499354121988</v>
@@ -27754,16 +27754,16 @@
         <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>210.8365152895138</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>57.01843290385241</v>
       </c>
     </row>
     <row r="7">
@@ -27785,7 +27785,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.8836670385466</v>
@@ -27794,7 +27794,7 @@
         <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
-        <v>122.1505735248085</v>
+        <v>119.9358854342184</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>78.07391927551555</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27864,7 +27864,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>174.7563999073475</v>
+        <v>174.7563999073458</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>301.0334742203004</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465034</v>
+        <v>65.76608425465031</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27952,7 +27952,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1.776449164529687</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27982,7 +27982,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>1.776449164527804</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -28022,7 +28022,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>55.06215278917081</v>
       </c>
       <c r="G10" t="n">
         <v>166.3072536117062</v>
@@ -28067,13 +28067,13 @@
         <v>220.7514885103387</v>
       </c>
       <c r="U10" t="n">
-        <v>196.1641031028309</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28490,7 +28490,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>1.05425485285074e-12</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -29274,7 +29274,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29562,7 +29562,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>-9.094947017729281e-13</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -30234,7 +30234,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -31041,31 +31041,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.16927002350883</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J2" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L2" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O2" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P2" t="n">
         <v>354.9824263269073</v>
@@ -31077,7 +31077,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
@@ -31126,16 +31126,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K3" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M3" t="n">
         <v>334.6599825043656</v>
@@ -31144,25 +31144,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S3" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31202,16 +31202,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I4" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L4" t="n">
         <v>164.6271425440336</v>
@@ -31223,25 +31223,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P4" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,31 +31278,31 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H5" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.16927002350883</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J5" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L5" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O5" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P5" t="n">
         <v>354.9824263269073</v>
@@ -31314,7 +31314,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
@@ -31363,16 +31363,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K6" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M6" t="n">
         <v>334.6599825043656</v>
@@ -31381,25 +31381,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S6" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31439,16 +31439,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I7" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L7" t="n">
         <v>164.6271425440336</v>
@@ -31460,25 +31460,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P7" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885557</v>
+        <v>3.753577726885558</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546671</v>
+        <v>38.44132789546673</v>
       </c>
       <c r="I8" t="n">
         <v>144.7098053157556</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972533</v>
+        <v>318.5802175972534</v>
       </c>
       <c r="K8" t="n">
-        <v>477.469162776319</v>
+        <v>477.4691627763192</v>
       </c>
       <c r="L8" t="n">
-        <v>592.342717135493</v>
+        <v>592.3427171354932</v>
       </c>
       <c r="M8" t="n">
-        <v>659.095405035994</v>
+        <v>659.0954050359942</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525076</v>
+        <v>669.7602577525079</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307894</v>
+        <v>632.4356192307896</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983021</v>
+        <v>539.7691690983022</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542129</v>
+        <v>405.3441667542131</v>
       </c>
       <c r="R8" t="n">
-        <v>235.785676886475</v>
+        <v>235.7856768864751</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140471</v>
+        <v>85.53465245140474</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944153</v>
+        <v>16.43128649944154</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508444</v>
+        <v>0.3002862181508446</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436929</v>
+        <v>2.00834113943693</v>
       </c>
       <c r="H9" t="n">
-        <v>19.3963473203514</v>
+        <v>19.39634732035141</v>
       </c>
       <c r="I9" t="n">
-        <v>69.1468330902627</v>
+        <v>69.14683309026273</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079425</v>
+        <v>189.7441951079426</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502168</v>
+        <v>324.3030514502169</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571281</v>
+        <v>436.0654741571282</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617166</v>
+        <v>508.8678404617168</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152214</v>
+        <v>522.3360580152216</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519084</v>
+        <v>477.8354464519085</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947589</v>
+        <v>383.5050724947591</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463702</v>
+        <v>256.3629847463703</v>
       </c>
       <c r="R9" t="n">
         <v>124.6933209204789</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366399</v>
+        <v>37.30405581366401</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133936</v>
+        <v>8.095024154133938</v>
       </c>
       <c r="U9" t="n">
         <v>0.1321277065419033</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752559</v>
+        <v>1.68372574675256</v>
       </c>
       <c r="H10" t="n">
         <v>14.96985254840004</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415879</v>
+        <v>50.63422518415882</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0394102954059</v>
+        <v>119.039410295406</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6183185772518</v>
+        <v>195.6183185772519</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490123</v>
+        <v>250.3240987490124</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023125</v>
+        <v>263.9316641023126</v>
       </c>
       <c r="N10" t="n">
-        <v>257.655959046235</v>
+        <v>257.6559590462351</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046254</v>
+        <v>237.9869810046255</v>
       </c>
       <c r="P10" t="n">
         <v>203.6389757708731</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.9890713939802</v>
+        <v>140.9890713939803</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307414</v>
+        <v>75.70643221307417</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658777</v>
+        <v>29.34274778658778</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942751</v>
+        <v>7.194100917942754</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650333</v>
+        <v>0.09183958618650337</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31840,7 +31840,7 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422587</v>
@@ -31852,13 +31852,13 @@
         <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>189.0011860882986</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>391.9250669264616</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32080,22 +32080,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>391.9250669264616</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32317,19 +32317,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565758</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,19 +32554,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558009</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067228</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>551.7051287319848</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,31 +34438,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>551.7051287319848</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.4384048176305</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L3" t="n">
-        <v>194.0102040017884</v>
+        <v>153.4895779655504</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
       </c>
       <c r="N3" t="n">
-        <v>263.7138800015063</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O3" t="n">
-        <v>171.6550983098281</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="P3" t="n">
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649641</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34871,13 +34871,13 @@
         <v>213.581156752698</v>
       </c>
       <c r="O4" t="n">
-        <v>181.0986910958077</v>
+        <v>181.0986910958074</v>
       </c>
       <c r="P4" t="n">
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827497113</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,13 +35014,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="K6" t="n">
-        <v>75.4384048176305</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659563</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M6" t="n">
         <v>192.5259485823473</v>
@@ -35035,7 +35035,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>125.9385470877689</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35114,7 +35114,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.534313070567</v>
+        <v>137.5343130705671</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313385</v>
+        <v>257.3793117313386</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655058</v>
+        <v>356.576302165506</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087213</v>
+        <v>428.7491718087215</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559167</v>
+        <v>440.347194155917</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091026</v>
+        <v>402.3374078091028</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430325</v>
+        <v>308.5361733430327</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797635</v>
+        <v>183.0384768797636</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234292</v>
+        <v>20.20013907234301</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.90656844127585</v>
+        <v>188.9976037816848</v>
       </c>
       <c r="K9" t="n">
-        <v>186.4616124758578</v>
+        <v>450.9268494884365</v>
       </c>
       <c r="L9" t="n">
-        <v>297.5110943772539</v>
+        <v>297.511094377254</v>
       </c>
       <c r="M9" t="n">
-        <v>621.9919601401302</v>
+        <v>366.7338065396985</v>
       </c>
       <c r="N9" t="n">
-        <v>640.140690085696</v>
+        <v>390.9943459318883</v>
       </c>
       <c r="O9" t="n">
-        <v>335.2392020074639</v>
+        <v>335.2392020074641</v>
       </c>
       <c r="P9" t="n">
-        <v>249.5306650804287</v>
+        <v>249.5306650804288</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.3812106603486</v>
+        <v>254.7649228294378</v>
       </c>
       <c r="R9" t="n">
-        <v>24.53548676783574</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873315</v>
+        <v>25.6802301787332</v>
       </c>
       <c r="K10" t="n">
         <v>173.348826751369</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093285</v>
+        <v>277.9141240093286</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641531</v>
+        <v>303.5155410641532</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254636</v>
+        <v>301.7881314254637</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186651</v>
+        <v>262.5721089186652</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357665</v>
+        <v>200.9175350357666</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228584</v>
+        <v>54.82702814228587</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678997</v>
@@ -35500,13 +35500,13 @@
         <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>57.65947400496527</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>257.9506595121313</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>257.9506595121313</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,22 +35962,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121313</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113564</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236316905</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>409.1088842875403</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,25 +38092,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>409.1088842875403</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
